--- a/data/tables/supplementary_37.xlsx
+++ b/data/tables/supplementary_37.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Archive\Trabajo\Profesiones\Bioinformática\PhD\Assignments\Assignment_01\assignment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Archive\Trabajo\Profesiones\Bioinformática\PhD\Assignments\enERVate_v2\data\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E89D48-CFE7-4BB7-82A1-5FA77C74A882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8F74B-2CAD-4064-9FAC-17707C4A40D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1DDABF75-C9EE-457F-AEC5-3C7B01475F5E}"/>
   </bookViews>
@@ -275,9 +275,6 @@
     <t>GAG</t>
   </si>
   <si>
-    <t>CAA40318A</t>
-  </si>
-  <si>
     <t>BAA00544.1</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>CAA40318.1</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:F16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,7 +794,7 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
         <v>59</v>
@@ -874,7 +874,7 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="s">
         <v>53</v>
@@ -897,7 +897,7 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
         <v>66</v>
@@ -954,7 +954,7 @@
         <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
         <v>55</v>
@@ -1005,22 +1005,22 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
